--- a/inst/extdata/frac_smry.xlsx
+++ b/inst/extdata/frac_smry.xlsx
@@ -27,9 +27,6 @@
     <t>LCMS_Injection</t>
   </si>
   <si>
-    <t>Fraction</t>
-  </si>
-  <si>
     <t>RAW_File</t>
   </si>
   <si>
@@ -181,13 +178,16 @@
   </si>
   <si>
     <t>02CPTAC3_Benchmarking_W_BI_20170511_BL_fA.raw</t>
+  </si>
+  <si>
+    <t>TMT_Channel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +322,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,8 +509,30 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -619,6 +647,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -664,11 +716,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -994,726 +1054,727 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>24</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D29" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D32" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D33" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D34" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D35" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D37" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D38" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D39" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D40" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D41" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D42" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D43" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D44" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D45" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D46" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D47" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D48" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D49" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D50" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>15</v>
-      </c>
-      <c r="D41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>17</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>20</v>
-      </c>
-      <c r="D46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>22</v>
-      </c>
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>24</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D51" s="4" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/frac_smry.xlsx
+++ b/inst/extdata/frac_smry.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\Research_xxx\BI_GL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -180,7 +180,7 @@
     <t>02CPTAC3_Benchmarking_W_BI_20170511_BL_fA.raw</t>
   </si>
   <si>
-    <t>TMT_Channel</t>
+    <t>Fraction</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1054,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,13 +1065,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>

--- a/inst/extdata/frac_smry.xlsx
+++ b/inst/extdata/frac_smry.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\Research_xxx\BI_GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\Mertins_Nat_Protoc_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13845"/>
   </bookViews>
   <sheets>
-    <sheet name="Fractions" sheetId="1" r:id="rId1"/>
+    <sheet name="Fractions" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>TMT_Set</t>
   </si>
@@ -30,81 +30,6 @@
     <t>RAW_File</t>
   </si>
   <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f01</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f02</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f03</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f04</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f05</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f06</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f07</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f08</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f09</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f10</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f11</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f12</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f13</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f14</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f15</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f16</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f17</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f18</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f19</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f20</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f21</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f22</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f23</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f24</t>
-  </si>
-  <si>
-    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_fA</t>
-  </si>
-  <si>
     <t>02CPTAC3_Benchmarking_W_BI_20170511_BL_f01.raw</t>
   </si>
   <si>
@@ -181,6 +106,381 @@
   </si>
   <si>
     <t>Fraction</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_01.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_02.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_03.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_04.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_05.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_06.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_07.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_08.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_09.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_10.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_11.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_12.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_13.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_14.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_15.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_16.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_17.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_18.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_19.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_20.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_21.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_22.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_23.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_24.raw</t>
+  </si>
+  <si>
+    <t>01_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_A.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_01.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_02.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_03.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_04.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_05.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_06.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_07.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_08.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_09.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_10.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_11.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_12.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_13.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_14.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_15.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_16.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_17.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_18.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_19.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_20.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_21.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_22.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_23.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_24.raw</t>
+  </si>
+  <si>
+    <t>02_CPTAC_TMT_HARMONIZATION_JHUZ_20170515_LUMOS_A.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f01.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f02.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f03.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f04.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f05.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f06.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f07.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f08.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f09.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f10.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f11.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f12.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f13.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f14.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f15.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f16.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f17.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f18.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f19.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f20.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f21.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f22.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f23.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_f24.raw</t>
+  </si>
+  <si>
+    <t>01CPTAC3_Benchmarking_W_BI_20170508_BL_fA.raw</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_01_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_02_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_03_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_04_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_05_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_06_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_07_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_08_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_09_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_10_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_11_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_12_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_13_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_14_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_15_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_16_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_17_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_18_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_19_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_20_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_21_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_22_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_23_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_24_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S2_Fr_A_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_01_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_02_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_03_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_04_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_05_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_06_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_07_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_08_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_09_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_10_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_11_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_12_2May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_13_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_14_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_15_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_16_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_17_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_18_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_19_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_20_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_22_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_23_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_24_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_A_9May17</t>
+  </si>
+  <si>
+    <t>CPTAC3_Harmonization_PNNL_W_S1_Fr_21_9May17</t>
   </si>
 </sst>
 </file>
@@ -1050,17 +1350,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1071,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1088,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,7 +1472,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,7 +1486,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,7 +1528,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1242,7 +1542,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,7 +1556,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,7 +1584,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1298,7 +1598,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1312,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,7 +1626,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1340,7 +1640,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,7 +1654,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1368,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,7 +1682,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,7 +1696,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,7 +1710,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,7 +1724,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1438,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,7 +1808,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,7 +1822,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,7 +1892,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,7 +1906,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,7 +1920,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,7 +1934,7 @@
         <v>15</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,7 +1962,7 @@
         <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,7 +1976,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,7 +1990,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,7 +2004,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,7 +2018,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,7 +2032,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,7 +2046,7 @@
         <v>23</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,7 +2060,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,7 +2074,1407 @@
         <v>25</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>3</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>3</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5">
+        <v>3</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>3</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5">
+        <v>4</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>3</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5">
+        <v>5</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>3</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>3</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5">
+        <v>7</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>3</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5">
+        <v>8</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>3</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5">
+        <v>9</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>3</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5">
+        <v>10</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>3</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5">
+        <v>11</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>3</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5">
+        <v>13</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>3</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5">
+        <v>14</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>3</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5">
+        <v>15</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>3</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5">
+        <v>16</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>3</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5">
+        <v>17</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>3</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5">
+        <v>18</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>3</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5">
+        <v>19</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>3</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+      <c r="C71" s="5">
+        <v>20</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5">
+        <v>21</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>3</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5">
+        <v>22</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+      <c r="C74" s="5">
+        <v>23</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>3</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1</v>
+      </c>
+      <c r="C75" s="5">
+        <v>24</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>3</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5">
+        <v>25</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>4</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>4</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4">
+        <v>3</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>4</v>
+      </c>
+      <c r="B80" s="4">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4">
+        <v>4</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4">
+        <v>5</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>4</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
+      <c r="C82" s="4">
+        <v>6</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>4</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1</v>
+      </c>
+      <c r="C83" s="4">
+        <v>7</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>4</v>
+      </c>
+      <c r="B84" s="4">
+        <v>1</v>
+      </c>
+      <c r="C84" s="4">
+        <v>8</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>4</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+      <c r="C85" s="4">
+        <v>9</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>4</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4">
+        <v>10</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>4</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>4</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4">
+        <v>12</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>4</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4">
+        <v>13</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>4</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4">
+        <v>14</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>4</v>
+      </c>
+      <c r="B91" s="4">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4">
+        <v>15</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>4</v>
+      </c>
+      <c r="B92" s="4">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4">
+        <v>16</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>4</v>
+      </c>
+      <c r="B93" s="4">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4">
+        <v>17</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>4</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4">
+        <v>18</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>4</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4">
+        <v>19</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>4</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1</v>
+      </c>
+      <c r="C96" s="4">
+        <v>20</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>4</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1</v>
+      </c>
+      <c r="C97" s="4">
+        <v>21</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1</v>
+      </c>
+      <c r="C98" s="4">
+        <v>22</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>4</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1</v>
+      </c>
+      <c r="C99" s="4">
+        <v>23</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>4</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4">
+        <v>24</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>4</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1</v>
+      </c>
+      <c r="C101" s="4">
+        <v>25</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>5</v>
+      </c>
+      <c r="B102" s="5">
+        <v>1</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>5</v>
+      </c>
+      <c r="B103" s="5">
+        <v>1</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>5</v>
+      </c>
+      <c r="B104" s="5">
+        <v>1</v>
+      </c>
+      <c r="C104" s="5">
+        <v>3</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>5</v>
+      </c>
+      <c r="B105" s="5">
+        <v>1</v>
+      </c>
+      <c r="C105" s="5">
+        <v>4</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>5</v>
+      </c>
+      <c r="B106" s="5">
+        <v>1</v>
+      </c>
+      <c r="C106" s="5">
+        <v>5</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>5</v>
+      </c>
+      <c r="B107" s="5">
+        <v>1</v>
+      </c>
+      <c r="C107" s="5">
+        <v>6</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>5</v>
+      </c>
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5">
+        <v>7</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>5</v>
+      </c>
+      <c r="B109" s="5">
+        <v>1</v>
+      </c>
+      <c r="C109" s="5">
+        <v>8</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>5</v>
+      </c>
+      <c r="B110" s="5">
+        <v>1</v>
+      </c>
+      <c r="C110" s="5">
+        <v>9</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>5</v>
+      </c>
+      <c r="B111" s="5">
+        <v>1</v>
+      </c>
+      <c r="C111" s="5">
+        <v>10</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>5</v>
+      </c>
+      <c r="B112" s="5">
+        <v>1</v>
+      </c>
+      <c r="C112" s="5">
+        <v>11</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>5</v>
+      </c>
+      <c r="B113" s="5">
+        <v>1</v>
+      </c>
+      <c r="C113" s="5">
+        <v>12</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>5</v>
+      </c>
+      <c r="B114" s="5">
+        <v>1</v>
+      </c>
+      <c r="C114" s="5">
+        <v>13</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>5</v>
+      </c>
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+      <c r="C115" s="5">
+        <v>14</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>5</v>
+      </c>
+      <c r="B116" s="5">
+        <v>1</v>
+      </c>
+      <c r="C116" s="5">
+        <v>15</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>5</v>
+      </c>
+      <c r="B117" s="5">
+        <v>1</v>
+      </c>
+      <c r="C117" s="5">
+        <v>16</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <v>5</v>
+      </c>
+      <c r="B118" s="5">
+        <v>1</v>
+      </c>
+      <c r="C118" s="5">
+        <v>17</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <v>5</v>
+      </c>
+      <c r="B119" s="5">
+        <v>1</v>
+      </c>
+      <c r="C119" s="5">
+        <v>18</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
+        <v>5</v>
+      </c>
+      <c r="B120" s="5">
+        <v>1</v>
+      </c>
+      <c r="C120" s="5">
+        <v>19</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>5</v>
+      </c>
+      <c r="B121" s="5">
+        <v>1</v>
+      </c>
+      <c r="C121" s="5">
+        <v>20</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>5</v>
+      </c>
+      <c r="B122" s="5">
+        <v>1</v>
+      </c>
+      <c r="C122" s="5">
+        <v>21</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>5</v>
+      </c>
+      <c r="B123" s="5">
+        <v>1</v>
+      </c>
+      <c r="C123" s="5">
+        <v>22</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>5</v>
+      </c>
+      <c r="B124" s="5">
+        <v>1</v>
+      </c>
+      <c r="C124" s="5">
+        <v>23</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>5</v>
+      </c>
+      <c r="B125" s="5">
+        <v>1</v>
+      </c>
+      <c r="C125" s="5">
+        <v>24</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>5</v>
+      </c>
+      <c r="B126" s="5">
+        <v>1</v>
+      </c>
+      <c r="C126" s="5">
+        <v>25</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>6</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1</v>
+      </c>
+      <c r="C127" s="4">
+        <v>1</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>6</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4">
+        <v>2</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>6</v>
+      </c>
+      <c r="B129" s="4">
+        <v>1</v>
+      </c>
+      <c r="C129" s="4">
+        <v>3</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>6</v>
+      </c>
+      <c r="B130" s="4">
+        <v>1</v>
+      </c>
+      <c r="C130" s="4">
+        <v>4</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>6</v>
+      </c>
+      <c r="B131" s="4">
+        <v>1</v>
+      </c>
+      <c r="C131" s="4">
+        <v>5</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>6</v>
+      </c>
+      <c r="B132" s="4">
+        <v>1</v>
+      </c>
+      <c r="C132" s="4">
+        <v>6</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>6</v>
+      </c>
+      <c r="B133" s="4">
+        <v>1</v>
+      </c>
+      <c r="C133" s="4">
+        <v>7</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>6</v>
+      </c>
+      <c r="B134" s="4">
+        <v>1</v>
+      </c>
+      <c r="C134" s="4">
+        <v>8</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>6</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1</v>
+      </c>
+      <c r="C135" s="4">
+        <v>9</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>6</v>
+      </c>
+      <c r="B136" s="4">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4">
+        <v>10</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>6</v>
+      </c>
+      <c r="B137" s="4">
+        <v>1</v>
+      </c>
+      <c r="C137" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>6</v>
+      </c>
+      <c r="B138" s="4">
+        <v>1</v>
+      </c>
+      <c r="C138" s="4">
+        <v>12</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>6</v>
+      </c>
+      <c r="B139" s="4">
+        <v>1</v>
+      </c>
+      <c r="C139" s="4">
+        <v>13</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>6</v>
+      </c>
+      <c r="B140" s="4">
+        <v>1</v>
+      </c>
+      <c r="C140" s="4">
+        <v>14</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>6</v>
+      </c>
+      <c r="B141" s="4">
+        <v>1</v>
+      </c>
+      <c r="C141" s="4">
+        <v>15</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>6</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1</v>
+      </c>
+      <c r="C142" s="4">
+        <v>16</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>6</v>
+      </c>
+      <c r="B143" s="4">
+        <v>1</v>
+      </c>
+      <c r="C143" s="4">
+        <v>17</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>6</v>
+      </c>
+      <c r="B144" s="4">
+        <v>1</v>
+      </c>
+      <c r="C144" s="4">
+        <v>18</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>6</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1</v>
+      </c>
+      <c r="C145" s="4">
+        <v>19</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>6</v>
+      </c>
+      <c r="B146" s="4">
+        <v>1</v>
+      </c>
+      <c r="C146" s="4">
+        <v>20</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>6</v>
+      </c>
+      <c r="B147" s="4">
+        <v>1</v>
+      </c>
+      <c r="C147" s="4">
+        <v>21</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>6</v>
+      </c>
+      <c r="B148" s="4">
+        <v>1</v>
+      </c>
+      <c r="C148" s="4">
+        <v>22</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>6</v>
+      </c>
+      <c r="B149" s="4">
+        <v>1</v>
+      </c>
+      <c r="C149" s="4">
+        <v>23</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>6</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1</v>
+      </c>
+      <c r="C150" s="4">
+        <v>24</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>6</v>
+      </c>
+      <c r="B151" s="4">
+        <v>1</v>
+      </c>
+      <c r="C151" s="4">
+        <v>25</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
